--- a/NSAS/stf/NSAS_stf_2020_tab_final.xlsx
+++ b/NSAS/stf/NSAS_stf_2020_tab_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wg_HAWG\NSAS\stf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8331ADDB-FB27-4A96-BC37-1489C96234E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{55448C51-7B2F-4E8F-9712-4385E466F453}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,6 +140,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,7 +647,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -652,6 +655,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1010,7 +1014,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,44 +1089,44 @@
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.19685269506615299</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.7872262287220299E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.9676258538748E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7.6751678634444397E-4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.198200180769776</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.13963503239161E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>391200.47811944399</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5614.9800130160302</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3330.3937383359998</v>
-      </c>
-      <c r="K2" s="1">
-        <v>241.13295483918401</v>
+      <c r="B2" s="7">
+        <v>0.1968526950658</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.78722622872204E-2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.9676258538746699E-3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>7.6751678634919397E-4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.198200180769422</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2.13963503239194E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>391200.47811884701</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5614.9800130160602</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3330.3937383358402</v>
+      </c>
+      <c r="K2" s="4">
+        <v>241.13295484067601</v>
       </c>
       <c r="L2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>400386.98482563521</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1287790.1195562501</v>
-      </c>
-      <c r="N2" s="1" t="s">
+        <v>400386.98482503957</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1287790.1195566501</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="1"/>
@@ -1139,562 +1143,562 @@
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
-        <v>9.0324901046035605E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.4917664980143E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.00689282110582E-8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9.6155961981802392E-9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9.0412574728502906E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.52796884200314E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>162435.851843365</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4809.8373862745702</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.7752776324789901E-2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3.1003145697996101E-3</v>
+      <c r="B3" s="7">
+        <v>0.220135369722052</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.9986093724866299E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.7599519765678304E-9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.1264195062023999E-8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.22025282781729</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2.0868370350239002E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>359366.78464261303</v>
+      </c>
+      <c r="I3" s="4">
+        <v>6425.0322259128998</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.3577926200011E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3.6211586550516299E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L23" si="0">SUM(H3:K3)</f>
-        <v>167245.71008273045</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1310895.73993165</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1408418.79147754</v>
+        <v>365791.83406761079</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1185976.5696035</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1180567.50404397</v>
       </c>
       <c r="O3" s="3">
         <f>(M3-$M$2)*100/$M$2</f>
-        <v>1.7942069926240571</v>
+        <v>-7.9060670218685667</v>
       </c>
       <c r="P3" s="3">
         <f>(H3-$S$2)*100/$S$2</f>
-        <v>-57.809746331669736</v>
+        <v>-6.6599175490865052</v>
       </c>
       <c r="Q3" s="3">
         <f>(L3-$U$2)*100/$U$2</f>
-        <v>-61.201472158823911</v>
+        <v>-15.141711849429829</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.5136388071055299E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.7428641154740802E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.36065103747042E-9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9.0464635378250595E-9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.53563475047057E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3.74893151137764E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>28895.681113343999</v>
-      </c>
-      <c r="I4" s="1">
-        <v>11931.963850914201</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2.4051882802585598E-3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2.88394322053206E-3</v>
+      <c r="B4" s="7">
+        <v>0.21996588418649701</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4.9118402938473499E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.7768869663489902E-9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.1433079360162E-8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.22025454540282</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5.0000000486254803E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>359113.71673889802</v>
+      </c>
+      <c r="I4" s="4">
+        <v>15557.097323795701</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.35779261454969E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3.62115862235011E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>40827.6502533897</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1392878.2243894299</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1579192.7172111501</v>
+        <v>374670.83126177848</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1185985.8158349099</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1177999.9843757099</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" ref="O4:O23" si="1">(M4-$M$2)*100/$M$2</f>
-        <v>8.1603440838163426</v>
+        <v>-7.9053490297618136</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P20" si="2">(H4-$S$2)*100/$S$2</f>
-        <v>-92.494784234783694</v>
+        <v>-6.7256481062996043</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4:Q20" si="3">(L4-$U$2)*100/$U$2</f>
-        <v>-90.528589796041004</v>
+        <v>-13.081915997750096</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.22013533369930799</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.9986093770454301E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.5519904052914001E-8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.1264195087788999E-8</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.22025279667703801</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.0868378011407299E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>359366.73464271898</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6425.0322259069299</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2.71558523999571E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3.6211586550712899E-3</v>
+      <c r="B5" s="7">
+        <v>0.220135333699118</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.9986093770473098E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.55199040529509E-8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.12641950877677E-8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.220252796676848</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2.0868378011425302E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>359366.734642617</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6425.0322259128998</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2.7155852400021899E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3.6211586550643901E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>365791.79764563695</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1185976.5974918299</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1180567.5404358299</v>
+        <v>365791.79764554097</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1185976.59749231</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1180567.5404362599</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>-7.9060648562440692</v>
+        <v>-7.9060648562353943</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
-        <v>-6.6599305358021201</v>
+        <v>-6.6599305358286074</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="3"/>
-        <v>-15.141720298788353</v>
+        <v>-15.14172029881062</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.21996584784072401</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.9118394819760602E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.5553774085680498E-8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.14330794421491E-8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.22025451390221401</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4.9999999998762701E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>359113.66629081301</v>
-      </c>
-      <c r="I6" s="1">
-        <v>15557.094781022801</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2.71558524002436E-2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3.6211586549836001E-3</v>
+      <c r="B6" s="7">
+        <v>0.21996584783429701</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4.9118394821023703E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.5553774082995801E-8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.14330794303689E-8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.22025451389579401</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="4">
+        <v>359113.66628213</v>
+      </c>
+      <c r="I6" s="4">
+        <v>15557.0947814132</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.7155852395563399E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3.6211586512502102E-3</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>374670.79184884689</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1185985.84404826</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1178000.0220783299</v>
+        <v>374670.79184055427</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1185985.8440542801</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1178000.0220878499</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>-7.9053468388987191</v>
+        <v>-7.9053468384598506</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>-6.7256612094260353</v>
+        <v>-6.7256612116813166</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>-13.081925140966522</v>
+        <v>-13.081925142890286</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.18630319087648101</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.9804881373680497E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.18653711395521699</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.0551546512003801E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>311657.60364920198</v>
-      </c>
-      <c r="I7" s="1">
-        <v>12668.2811189558</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="B7" s="7">
+        <v>0.186303190876525</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3.9804881373689899E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.18653711395526101</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4.0551546512013301E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>311657.60364940402</v>
+      </c>
+      <c r="I7" s="4">
+        <v>12668.281118958599</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>0</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88476815779</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1216546.3953601101</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1230793.5275047501</v>
+        <v>324325.88476836262</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1216546.3953604</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1230793.5275048399</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
-        <v>-5.532246529480231</v>
+        <v>-5.5322465294870637</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
-        <v>-19.051655121659294</v>
+        <v>-19.051655121606821</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="3"/>
-        <v>-24.76119797890842</v>
+        <v>-24.761197978860903</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.18630319087648101</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.9804881373680497E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.18653711395521699</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4.0551546512003801E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>311657.60364920198</v>
-      </c>
-      <c r="I8" s="1">
-        <v>12668.2811189558</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="B8" s="7">
+        <v>0.186303190876525</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.9804881373689899E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.18653711395526101</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4.0551546512013301E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>311657.60364940402</v>
+      </c>
+      <c r="I8" s="4">
+        <v>12668.281118958599</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>0</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88476815779</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1216546.3953601101</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1230793.5275047501</v>
+        <v>324325.88476836262</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1216546.3953604</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1230793.5275048399</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>-5.532246529480231</v>
+        <v>-5.5322465294870637</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
-        <v>-19.051655121659294</v>
+        <v>-19.051655121606821</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>-24.76119797890842</v>
+        <v>-24.761197978860903</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.18630319087648101</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.9804881373680497E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.18653711395521699</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4.0551546512003801E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>311657.60364920198</v>
-      </c>
-      <c r="I9" s="1">
-        <v>12668.2811189558</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="B9" s="7">
+        <v>0.186303190876525</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3.9804881373689899E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.18653711395526101</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4.0551546512013301E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>311657.60364940402</v>
+      </c>
+      <c r="I9" s="4">
+        <v>12668.281118958599</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88476815779</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1216546.3953601101</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1230793.5275047501</v>
+        <v>324325.88476836262</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1216546.3953604</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1230793.5275048399</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="1"/>
-        <v>-5.532246529480231</v>
+        <v>-5.5322465294870637</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="2"/>
-        <v>-19.051655121659294</v>
+        <v>-19.051655121606821</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="3"/>
-        <v>-24.76119797890842</v>
+        <v>-24.761197978860903</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.19029595457524801</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4.9237332680255902E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.190585309751092</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4.9999999999998698E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>317404.87558232603</v>
-      </c>
-      <c r="I10" s="1">
-        <v>15595.0655286494</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="B10" s="7">
+        <v>0.19029595457530099</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4.9237332680256998E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.19058530975114499</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="4">
+        <v>317404.87558254303</v>
+      </c>
+      <c r="I10" s="4">
+        <v>15595.0655286497</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>332999.94111097546</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1212815.60750701</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1223493.78005423</v>
+        <v>332999.94111119275</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1212815.6075072901</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1223493.7800543101</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="1"/>
-        <v>-5.8219511790535377</v>
+        <v>-5.8219511790610401</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="2"/>
-        <v>-17.558888235484449</v>
+        <v>-17.558888235428089</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="3"/>
-        <v>-22.7489453695813</v>
+        <v>-22.748945369530894</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.25986134119765403</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.35928192226811E-2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.55581315744071E-8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.12862643171921E-8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2.46343172483133E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>412470.43741814198</v>
-      </c>
-      <c r="I11" s="1">
-        <v>7569.6739970408798</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2.7155852400006002E-2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3.6211586550642999E-3</v>
+      <c r="B11" s="7">
+        <v>0.25986134119543502</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.3592819222522099E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.5558131574403599E-8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.12862643171903E-8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.25999999999778001</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2.4634317248145399E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>412470.437415439</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7569.6739969905102</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2.71558524000035E-2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3.6211586550640501E-3</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>420040.14219219395</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1151508.68413125</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1124227.88940613</v>
+        <v>420040.14218944055</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1151508.68413342</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1124227.8894092599</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>-10.582581226198586</v>
+        <v>-10.582581226057854</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="2"/>
-        <v>7.1329524108958733</v>
+        <v>7.1329524101938127</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="3"/>
-        <v>-2.55690777841843</v>
+        <v>-2.5569077790571773</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>0</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="1">
-        <v>1410557.79625768</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1622539.1676378101</v>
+      <c r="M12" s="4">
+        <v>1410557.7962581001</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1622539.16763812</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="1"/>
-        <v>9.533205359871344</v>
+        <v>9.5332053598699353</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="2"/>
@@ -1709,49 +1713,49 @@
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.239035272824901</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.1702019829539301E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.5538101880692699E-8</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.12746931682774E-8</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.23916281987149299</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2.26600511950651E-2</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="B13" s="7">
+        <v>0.23903527282477499</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.1702019829566901E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.5538101880691901E-8</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.12746931682776E-8</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.23916281987136701</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2.26600511950923E-2</v>
+      </c>
+      <c r="H13" s="4">
         <v>385008</v>
       </c>
-      <c r="I13" s="1">
-        <v>6970.1636900604299</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2.7155852400001099E-2</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="I13" s="4">
+        <v>6970.1636900692001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2.71558524E-2</v>
+      </c>
+      <c r="K13" s="4">
         <v>3.6211586550636801E-3</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>391978.1944670715</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1169373.7312169599</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1153096.17080722</v>
+        <v>391978.19446708029</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1169373.7312173699</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1153096.17080754</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="1"/>
-        <v>-9.1953173534282424</v>
+        <v>-9.195317353424608</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="2"/>
@@ -1759,577 +1763,577 @@
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="3"/>
-        <v>-9.0668640550381383</v>
+        <v>-9.066864055036099</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>-0.15</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.19717527856888201</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.79015496534327E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.54977701029176E-8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.1251445503567401E-8</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.197280491201476</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1.8691814647919001E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>327256.79781064199</v>
-      </c>
-      <c r="I14" s="1">
-        <v>5761.4242939741898</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2.7155852399999798E-2</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3.6211586550636602E-3</v>
+      <c r="B14" s="7">
+        <v>0.19717528010827301</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.79015497932263E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.54977701044032E-8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.1251445504421299E-8</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.19728049274168899</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1.8691814793882201E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>327256.79999999102</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5761.4243385275404</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2.7155852400000801E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3.6211586550633501E-3</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>333018.25288162724</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1206661.1316922901</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1215687.30601802</v>
+        <v>333018.25511552964</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1206661.13028645</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1215687.30359622</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>-6.2998610279690306</v>
+        <v>-6.2998611371649949</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="2"/>
-        <v>-15.000000568652601</v>
+        <v>-15.000000000002332</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="3"/>
-        <v>-22.744697309986211</v>
+        <v>-22.744696791753938</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>0.15</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.28356464315900798</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.5744842742522301E-2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.5580899998670099E-8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.1299438143183E-8</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.28371594886603402</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2.6881338797176899E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>442759.199644437</v>
-      </c>
-      <c r="I15" s="1">
-        <v>8250.5128962170202</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2.71558524E-2</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="B15" s="7">
+        <v>0.28356464315881402</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.5744842742551101E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.558089999867E-8</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.12994381431832E-8</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.28371594886584101</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2.6881338797205001E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>442759.19964438601</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8250.5128962261206</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2.71558524000001E-2</v>
+      </c>
+      <c r="K15" s="4">
         <v>3.6211586550636702E-3</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>451009.74331766507</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1131707.0679937699</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1093040.7564050399</v>
+        <v>451009.74331762322</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1131707.0679942099</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1093040.7564054099</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="1"/>
-        <v>-12.120224343409596</v>
+        <v>-12.120224343402722</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="2"/>
-        <v>14.999999907647894</v>
+        <v>14.999999907634651</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="3"/>
-        <v>4.6275810249256644</v>
+        <v>4.6275810249159557</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.19809447769817501</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.79850037708752E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.54986568011833E-8</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.12519558511356E-8</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.198200180769775</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.8778952729130799E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>328563.12993721903</v>
-      </c>
-      <c r="I16" s="1">
-        <v>5788.0205830777604</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2.71558524000007E-2</v>
-      </c>
-      <c r="K16" s="1">
-        <v>3.6211586550635401E-3</v>
+      <c r="B16" s="7">
+        <v>0.19809447769781799</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.7985003770875099E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.5498656801182599E-8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.1251955851136001E-8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.19820018076941701</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1.87789527291293E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>328563.12993685802</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5788.0205830777304</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2.71558524E-2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3.6211586550636801E-3</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>334351.18129730783</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1205821.95496059</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1214242.75690483</v>
+        <v>334351.18129694683</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1205821.9549612401</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1214242.7569055499</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="1"/>
-        <v>-6.3650251194585072</v>
+        <v>-6.3650251194371119</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="2"/>
-        <v>-14.660700573177953</v>
+        <v>-14.660700573271718</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="3"/>
-        <v>-22.435477658130889</v>
+        <v>-22.435477658214634</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="7">
         <v>0.29984001056526699</v>
       </c>
-      <c r="C17" s="1">
-        <v>2.7222483853850701E-2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.55965161812892E-8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.13084861685352E-8</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="C17" s="7">
+        <v>2.72224838538998E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.5596516146086699E-8</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.13084861527423E-8</v>
+      </c>
+      <c r="F17" s="7">
         <v>0.3</v>
       </c>
-      <c r="G17" s="1">
-        <v>2.84242082816401E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>462983.79905472498</v>
-      </c>
-      <c r="I17" s="1">
-        <v>8717.0759682841599</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2.7155852400034E-2</v>
-      </c>
-      <c r="K17" s="1">
-        <v>3.6211586549795101E-3</v>
+      <c r="G17" s="7">
+        <v>2.8424208281689001E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>462983.79905492399</v>
+      </c>
+      <c r="I17" s="4">
+        <v>8717.0759682996195</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2.7155852338741199E-2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3.6211586499222898E-3</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>471700.90580002021</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1118428.79192639</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1072590.1106156199</v>
+        <v>471700.90580023464</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1118428.7919266699</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1072590.11061572</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="1"/>
-        <v>-13.151314415133033</v>
+        <v>-13.151314415138275</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="2"/>
-        <v>20.253033457674903</v>
+        <v>20.253033457726591</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="3"/>
-        <v>9.4276242860702641</v>
+        <v>9.427624286120011</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.33981867993293302</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3.08521484850252E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.5634817208672101E-8</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.1330720276782201E-8</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="B18" s="7">
+        <v>0.33981867993293202</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3.0852148485080801E-2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.5634817209249301E-8</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.1330720277193799E-8</v>
+      </c>
+      <c r="F18" s="7">
         <v>0.34</v>
       </c>
-      <c r="G18" s="1">
-        <v>3.2214099314900498E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>510787.550083387</v>
-      </c>
-      <c r="I18" s="1">
-        <v>9859.9666926026894</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2.7155852405980899E-2</v>
-      </c>
-      <c r="K18" s="1">
-        <v>3.6211586556604601E-3</v>
+      <c r="G18" s="7">
+        <v>3.2214099314956099E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>510787.55008360499</v>
+      </c>
+      <c r="I18" s="4">
+        <v>9859.9666926201498</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2.7155852406983299E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>3.6211586557918902E-3</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>520647.54755300074</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1086869.5919641601</v>
-      </c>
-      <c r="N18" s="1">
-        <v>1025412.8511105001</v>
+        <v>520647.54755323619</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1086869.5919644199</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1025412.85111059</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="1"/>
-        <v>-15.601962194066504</v>
+        <v>-15.601962194072543</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="2"/>
-        <v>32.669334165364617</v>
+        <v>32.669334165421233</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="3"/>
-        <v>20.78252027620174</v>
+        <v>20.78252027625636</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.62310154120476802</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5.6571408241276301E-2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.59040336980664E-8</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.1488615062514E-8</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.62343400693529305</v>
-      </c>
-      <c r="G19" s="1">
-        <v>5.9068699348326897E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>787753.74432264001</v>
-      </c>
-      <c r="I19" s="1">
-        <v>17831.047821460401</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="B19" s="7">
+        <v>0.62310154117927496</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5.6571408239063703E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.5904033698042401E-8</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.1488615062502301E-8</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.62343400690978601</v>
+      </c>
+      <c r="G19" s="7">
+        <v>5.9068699346012103E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>787753.744301992</v>
+      </c>
+      <c r="I19" s="4">
+        <v>17831.047820784199</v>
+      </c>
+      <c r="J19" s="4">
         <v>2.71558524E-2</v>
       </c>
-      <c r="K19" s="1">
-        <v>3.6211586550636801E-3</v>
+      <c r="K19" s="4">
+        <v>3.6211586550642799E-3</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>805584.82292111148</v>
-      </c>
-      <c r="M19" s="1">
-        <v>900000.00004493899</v>
-      </c>
-      <c r="N19" s="1">
-        <v>781185.27238199196</v>
+        <v>805584.82289978722</v>
+      </c>
+      <c r="M19" s="4">
+        <v>900000.00005945202</v>
+      </c>
+      <c r="N19" s="4">
+        <v>781185.27239881596</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
-        <v>-30.112835439748267</v>
+        <v>-30.112835438643003</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="2"/>
-        <v>104.60711058540082</v>
+        <v>104.60711058003781</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="3"/>
-        <v>86.883748259209</v>
+        <v>86.883748254262073</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.81989494480878999</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7.4438287454811694E-2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.60890858773258E-8</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.15986553662889E-8</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.82033240972305499</v>
-      </c>
-      <c r="G20" s="1">
-        <v>7.7724286625360794E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>933741.97717563796</v>
-      </c>
-      <c r="I20" s="1">
-        <v>23240.008464132501</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="B20" s="7">
+        <v>0.81989494480910596</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7.4438287454974494E-2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.60890858773263E-8</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.15986553662899E-8</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.82033240972337196</v>
+      </c>
+      <c r="G20" s="7">
+        <v>7.7724286625524899E-2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>933741.97717620397</v>
+      </c>
+      <c r="I20" s="4">
+        <v>23240.008464181301</v>
+      </c>
+      <c r="J20" s="4">
         <v>2.71558524E-2</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>3.6211586550636801E-3</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>956982.01641678158</v>
-      </c>
-      <c r="M20" s="1">
-        <v>800000.00000000396</v>
-      </c>
-      <c r="N20" s="1">
-        <v>669586.06618922402</v>
+        <v>956982.01641739637</v>
+      </c>
+      <c r="M20" s="4">
+        <v>800000.00000000105</v>
+      </c>
+      <c r="N20" s="4">
+        <v>669586.06618908199</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="1"/>
-        <v>-37.878075949544481</v>
+        <v>-37.878075949564007</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="2"/>
-        <v>142.52534419431231</v>
+        <v>142.52534419445934</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="3"/>
-        <v>122.00565496768019</v>
+        <v>122.00565496782281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1">
-        <v>1.9685269506615301E-9</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.78722622872203E-10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.53063938654042E-8</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.11421240132109E-8</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.16651731326822E-8</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2.6635129955452001E-8</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3.8049934339489601E-3</v>
-      </c>
-      <c r="I21" s="1">
-        <v>5.8084344771418298E-5</v>
-      </c>
-      <c r="J21" s="1">
-        <v>2.7155852402291101E-2</v>
-      </c>
-      <c r="K21" s="1">
-        <v>3.6211586550630001E-3</v>
+      <c r="B21" s="7">
+        <v>9.0975252243630997E-3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8.2596459713225195E-4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.5315277965740099E-8</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.114716132784E-8</v>
+      </c>
+      <c r="F21" s="7">
+        <v>9.1023889076732502E-3</v>
+      </c>
+      <c r="G21" s="7">
+        <v>8.6245208258511397E-4</v>
+      </c>
+      <c r="H21" s="4">
+        <v>17454.152825048801</v>
+      </c>
+      <c r="I21" s="4">
+        <v>268.31484361838397</v>
+      </c>
+      <c r="J21" s="4">
+        <v>2.7155852399999798E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3.6211586535946699E-3</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>3.464008883607448E-2</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1410557.7855299001</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1622539.12450443</v>
+        <v>17722.498445678237</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1400000</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1598467.7739653799</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="1"/>
-        <v>9.5332045268334298</v>
+        <v>8.7133670882628493</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" ref="P21:P23" si="4">(H21-$S$2)*100/$S$2</f>
-        <v>-99.999999011710557</v>
+        <v>-95.466548013275357</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" ref="Q21:Q23" si="5">(L21-$U$2)*100/$U$2</f>
-        <v>-99.999991964012409</v>
+        <v>-95.888642829644411</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.11393219577043499</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.8776642842344302E-2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4.3889295320990399E-4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>5.0239461611126896E-4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.114321626062531</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2.0174547382712502E-2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>201182.162824959</v>
-      </c>
-      <c r="I22" s="1">
-        <v>6039.3190302953599</v>
-      </c>
-      <c r="J22" s="1">
-        <v>772.17617979991996</v>
-      </c>
-      <c r="K22" s="1">
-        <v>161.59019433209301</v>
+      <c r="B22" s="7">
+        <v>0.226613118579086</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1.97581905599232E-2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.90805961478388E-3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>7.5073117309246195E-4</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.227934112271029</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2.3325200443423601E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>368118.66927183798</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6346.2808562547598</v>
+      </c>
+      <c r="J22" s="4">
+        <v>3330.39373833842</v>
+      </c>
+      <c r="K22" s="4">
+        <v>241.13295483920501</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="0"/>
-        <v>208155.24822938637</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1286416.87272012</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1359687.14733694</v>
+        <v>378036.47682127036</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1179238.31874751</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1166897.8712851901</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" si="1"/>
-        <v>-0.10663591957074794</v>
+        <v>-8.4293084067543109</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="4"/>
-        <v>-47.745978570585805</v>
+        <v>-4.3867479969668217</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="5"/>
-        <v>-51.711065176381503</v>
+        <v>-12.30113607293838</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.217747358145708</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.97692893941484E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3.8221723568433201E-3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>7.5115288384893896E-4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.22027269592404</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2.52153015733977E-2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>355854.669271841</v>
-      </c>
-      <c r="I23" s="1">
-        <v>6346.2808560160001</v>
-      </c>
-      <c r="J23" s="1">
-        <v>6660.78747667685</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="B23" s="7">
+        <v>0.21774735814570201</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1.9769289394906901E-2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3.8221723568458801E-3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>7.5115288384949798E-4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.220272695924039</v>
+      </c>
+      <c r="G23" s="7">
+        <v>2.5215301574159299E-2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>355854.66927185899</v>
+      </c>
+      <c r="I23" s="4">
+        <v>6346.2808562547598</v>
+      </c>
+      <c r="J23" s="4">
+        <v>6660.78747667682</v>
+      </c>
+      <c r="K23" s="4">
         <v>241.13295484068999</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="0"/>
-        <v>369102.87055937451</v>
-      </c>
-      <c r="M23" s="1">
+        <v>369102.87055963121</v>
+      </c>
+      <c r="M23" s="4">
         <v>1186083.7472832899</v>
       </c>
-      <c r="N23" s="1">
-        <v>1175798.92466792</v>
+      <c r="N23" s="4">
+        <v>1175798.92466753</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="1"/>
-        <v>-7.8977444172351916</v>
+        <v>-7.8977444172638007</v>
       </c>
       <c r="P23" s="3">
         <f t="shared" si="4"/>
-        <v>-7.5721363525326737</v>
+        <v>-7.5721363525280019</v>
       </c>
       <c r="Q23" s="3">
         <f t="shared" si="5"/>
-        <v>-14.373600419574327</v>
+        <v>-14.373600419514778</v>
       </c>
     </row>
   </sheetData>

--- a/NSAS/stf/NSAS_stf_2020_tab_final.xlsx
+++ b/NSAS/stf/NSAS_stf_2020_tab_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wg_HAWG\NSAS\stf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{55448C51-7B2F-4E8F-9712-4385E466F453}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6F609055-99B1-47A4-9233-FF42007CB248}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Fbar 2-6 A</t>
   </si>
@@ -61,9 +61,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>fmsyAR_transfer</t>
-  </si>
-  <si>
     <t>fmsyAR_no_transfer</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
   </si>
   <si>
     <t>advice change</t>
-  </si>
-  <si>
-    <t>fmsyAR_transfer_Btarget</t>
   </si>
   <si>
     <t>fmsyAR_no_transfer_Btarget</t>
@@ -1011,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
@@ -1070,29 +1064,29 @@
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
         <v>28</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="3">
         <v>0.1968526950658</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>1.78722622872204E-2</v>
       </c>
       <c r="D2" s="7">
@@ -1101,10 +1095,10 @@
       <c r="E2" s="7">
         <v>7.6751678634919397E-4</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="3">
         <v>0.198200180769422</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="3">
         <v>2.13963503239194E-2</v>
       </c>
       <c r="H2" s="4">
@@ -1143,599 +1137,599 @@
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.220135369722052</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1.9986093724866299E-2</v>
+      <c r="B3" s="3">
+        <v>0.220135333699118</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.9986093770473098E-2</v>
       </c>
       <c r="D3" s="4">
-        <v>7.7599519765678304E-9</v>
+        <v>1.55199040529509E-8</v>
       </c>
       <c r="E3" s="4">
-        <v>1.1264195062023999E-8</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.22025282781729</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2.0868370350239002E-2</v>
+        <v>1.12641950877677E-8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.220252796676848</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2.0868378011425302E-2</v>
       </c>
       <c r="H3" s="4">
-        <v>359366.78464261303</v>
+        <v>359366.734642617</v>
       </c>
       <c r="I3" s="4">
         <v>6425.0322259128998</v>
       </c>
       <c r="J3" s="4">
-        <v>1.3577926200011E-2</v>
+        <v>2.7155852400021899E-2</v>
       </c>
       <c r="K3" s="4">
-        <v>3.6211586550516299E-3</v>
+        <v>3.6211586550643901E-3</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L3:L23" si="0">SUM(H3:K3)</f>
-        <v>365791.83406761079</v>
+        <f t="shared" ref="L3:L17" si="0">SUM(H3:K3)</f>
+        <v>365791.79764554097</v>
       </c>
       <c r="M3" s="4">
-        <v>1185976.5696035</v>
+        <v>1185976.59749231</v>
       </c>
       <c r="N3" s="4">
-        <v>1180567.50404397</v>
+        <v>1180567.5404362599</v>
       </c>
       <c r="O3" s="3">
-        <f>(M3-$M$2)*100/$M$2</f>
-        <v>-7.9060670218685667</v>
+        <f t="shared" ref="O3:O17" si="1">(M3-$M$2)*100/$M$2</f>
+        <v>-7.9060648562353943</v>
       </c>
       <c r="P3" s="3">
-        <f>(H3-$S$2)*100/$S$2</f>
-        <v>-6.6599175490865052</v>
+        <f t="shared" ref="P3:P13" si="2">(H3-$S$2)*100/$S$2</f>
+        <v>-6.6599305358286074</v>
       </c>
       <c r="Q3" s="3">
-        <f>(L3-$U$2)*100/$U$2</f>
-        <v>-15.141711849429829</v>
+        <f t="shared" ref="Q3:Q13" si="3">(L3-$U$2)*100/$U$2</f>
+        <v>-15.14172029881062</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.21996588418649701</v>
-      </c>
-      <c r="C4" s="7">
-        <v>4.9118402938473499E-2</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.25986134119543502</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.3592819222522099E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>7.7768869663489902E-9</v>
+        <v>1.5558131574403599E-8</v>
       </c>
       <c r="E4" s="4">
-        <v>1.1433079360162E-8</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.22025454540282</v>
-      </c>
-      <c r="G4" s="7">
-        <v>5.0000000486254803E-2</v>
+        <v>1.12862643171903E-8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.25999999999778001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.4634317248145399E-2</v>
       </c>
       <c r="H4" s="4">
-        <v>359113.71673889802</v>
+        <v>412470.437415439</v>
       </c>
       <c r="I4" s="4">
-        <v>15557.097323795701</v>
+        <v>7569.6739969905102</v>
       </c>
       <c r="J4" s="4">
-        <v>1.35779261454969E-2</v>
+        <v>2.71558524000035E-2</v>
       </c>
       <c r="K4" s="4">
-        <v>3.62115862235011E-3</v>
+        <v>3.6211586550640501E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>374670.83126177848</v>
+        <v>420040.14218944055</v>
       </c>
       <c r="M4" s="4">
-        <v>1185985.8158349099</v>
+        <v>1151508.68413342</v>
       </c>
       <c r="N4" s="4">
-        <v>1177999.9843757099</v>
+        <v>1124227.8894092599</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:O23" si="1">(M4-$M$2)*100/$M$2</f>
-        <v>-7.9053490297618136</v>
+        <f t="shared" si="1"/>
+        <v>-10.582581226057854</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" ref="P4:P20" si="2">(H4-$S$2)*100/$S$2</f>
-        <v>-6.7256481062996043</v>
+        <f t="shared" si="2"/>
+        <v>7.1329524101938127</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" ref="Q4:Q20" si="3">(L4-$U$2)*100/$U$2</f>
-        <v>-13.081915997750096</v>
+        <f t="shared" si="3"/>
+        <v>-2.5569077790571773</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.220135333699118</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1.9986093770473098E-2</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>1.55199040529509E-8</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>1.12641950877677E-8</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.220252796676848</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2.0868378011425302E-2</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>359366.734642617</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>6425.0322259128998</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>2.7155852400021899E-2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
-        <v>3.6211586550643901E-3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>365791.79764554097</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
-        <v>1185976.59749231</v>
+        <v>1410557.7962581001</v>
       </c>
       <c r="N5" s="4">
-        <v>1180567.5404362599</v>
+        <v>1622539.16763812</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>-7.9060648562353943</v>
+        <v>9.5332053598699353</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
-        <v>-6.6599305358286074</v>
+        <v>-100</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="3"/>
-        <v>-15.14172029881062</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.21996584783429701</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4.9118394821023703E-2</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.23903527282477499</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.1702019829566901E-2</v>
       </c>
       <c r="D6" s="4">
-        <v>1.5553774082995801E-8</v>
+        <v>1.5538101880691901E-8</v>
       </c>
       <c r="E6" s="4">
-        <v>1.14330794303689E-8</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.22025451389579401</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.05</v>
+        <v>1.12746931682776E-8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.23916281987136701</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.26600511950923E-2</v>
       </c>
       <c r="H6" s="4">
-        <v>359113.66628213</v>
+        <v>385008</v>
       </c>
       <c r="I6" s="4">
-        <v>15557.0947814132</v>
+        <v>6970.1636900692001</v>
       </c>
       <c r="J6" s="4">
-        <v>2.7155852395563399E-2</v>
+        <v>2.71558524E-2</v>
       </c>
       <c r="K6" s="4">
-        <v>3.6211586512502102E-3</v>
+        <v>3.6211586550636801E-3</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>374670.79184055427</v>
+        <v>391978.19446708029</v>
       </c>
       <c r="M6" s="4">
-        <v>1185985.8440542801</v>
+        <v>1169373.7312173699</v>
       </c>
       <c r="N6" s="4">
-        <v>1178000.0220878499</v>
+        <v>1153096.17080754</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>-7.9053468384598506</v>
+        <v>-9.195317353424608</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>-6.7256612116813166</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>-13.081925142890286</v>
+        <v>-9.066864055036099</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.186303190876525</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3.9804881373689899E-2</v>
+      <c r="A7" s="6">
+        <v>-0.15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.19717528010827301</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.79015497932263E-2</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>1.54977701044032E-8</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.18653711395526101</v>
-      </c>
-      <c r="G7" s="7">
-        <v>4.0551546512013301E-2</v>
+        <v>1.1251445504421299E-8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.19728049274168899</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.8691814793882201E-2</v>
       </c>
       <c r="H7" s="4">
-        <v>311657.60364940402</v>
+        <v>327256.79999999102</v>
       </c>
       <c r="I7" s="4">
-        <v>12668.281118958599</v>
+        <v>5761.4243385275404</v>
       </c>
       <c r="J7" s="4">
-        <v>0</v>
+        <v>2.7155852400000801E-2</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>3.6211586550633501E-3</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88476836262</v>
+        <v>333018.25511552964</v>
       </c>
       <c r="M7" s="4">
-        <v>1216546.3953604</v>
+        <v>1206661.13028645</v>
       </c>
       <c r="N7" s="4">
-        <v>1230793.5275048399</v>
+        <v>1215687.30359622</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5322465294870637</v>
+        <v>-6.2998611371649949</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
-        <v>-19.051655121606821</v>
+        <v>-15.000000000002332</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="3"/>
-        <v>-24.761197978860903</v>
+        <v>-22.744696791753938</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.186303190876525</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3.9804881373689899E-2</v>
+      <c r="A8" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.28356464315881402</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.5744842742551101E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>1.558089999867E-8</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.18653711395526101</v>
-      </c>
-      <c r="G8" s="7">
-        <v>4.0551546512013301E-2</v>
+        <v>1.12994381431832E-8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.28371594886584101</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.6881338797205001E-2</v>
       </c>
       <c r="H8" s="4">
-        <v>311657.60364940402</v>
+        <v>442759.19964438601</v>
       </c>
       <c r="I8" s="4">
-        <v>12668.281118958599</v>
+        <v>8250.5128962261206</v>
       </c>
       <c r="J8" s="4">
-        <v>0</v>
+        <v>2.71558524000001E-2</v>
       </c>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>3.6211586550636702E-3</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88476836262</v>
+        <v>451009.74331762322</v>
       </c>
       <c r="M8" s="4">
-        <v>1216546.3953604</v>
+        <v>1131707.0679942099</v>
       </c>
       <c r="N8" s="4">
-        <v>1230793.5275048399</v>
+        <v>1093040.7564054099</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5322465294870637</v>
+        <v>-12.120224343402722</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
-        <v>-19.051655121606821</v>
+        <v>14.999999907634651</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>-24.761197978860903</v>
+        <v>4.6275810249159557</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.186303190876525</v>
-      </c>
-      <c r="C9" s="7">
-        <v>3.9804881373689899E-2</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.19809447769781799</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.7985003770875099E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>1.5498656801182599E-8</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.18653711395526101</v>
-      </c>
-      <c r="G9" s="7">
-        <v>4.0551546512013301E-2</v>
+        <v>1.1251955851136001E-8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.19820018076941701</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.87789527291293E-2</v>
       </c>
       <c r="H9" s="4">
-        <v>311657.60364940402</v>
+        <v>328563.12993685802</v>
       </c>
       <c r="I9" s="4">
-        <v>12668.281118958599</v>
+        <v>5788.0205830777304</v>
       </c>
       <c r="J9" s="4">
-        <v>0</v>
+        <v>2.71558524E-2</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>3.6211586550636801E-3</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>324325.88476836262</v>
+        <v>334351.18129694683</v>
       </c>
       <c r="M9" s="4">
-        <v>1216546.3953604</v>
+        <v>1205821.9549612401</v>
       </c>
       <c r="N9" s="4">
-        <v>1230793.5275048399</v>
+        <v>1214242.7569055499</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="1"/>
-        <v>-5.5322465294870637</v>
+        <v>-6.3650251194371119</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="2"/>
-        <v>-19.051655121606821</v>
+        <v>-14.660700573271718</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="3"/>
-        <v>-24.761197978860903</v>
+        <v>-22.435477658214634</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.19029595457530099</v>
-      </c>
-      <c r="C10" s="7">
-        <v>4.9237332680256998E-2</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.29984001056526699</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.72224838538998E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>1.5596516146086699E-8</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.19058530975114499</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.05</v>
+        <v>1.13084861527423E-8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.8424208281689001E-2</v>
       </c>
       <c r="H10" s="4">
-        <v>317404.87558254303</v>
+        <v>462983.79905492399</v>
       </c>
       <c r="I10" s="4">
-        <v>15595.0655286497</v>
+        <v>8717.0759682996195</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>2.7155852338741199E-2</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>3.6211586499222898E-3</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>332999.94111119275</v>
+        <v>471700.90580023464</v>
       </c>
       <c r="M10" s="4">
-        <v>1212815.6075072901</v>
+        <v>1118428.7919266699</v>
       </c>
       <c r="N10" s="4">
-        <v>1223493.7800543101</v>
+        <v>1072590.11061572</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="1"/>
-        <v>-5.8219511790610401</v>
+        <v>-13.151314415138275</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="2"/>
-        <v>-17.558888235428089</v>
+        <v>20.253033457726591</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="3"/>
-        <v>-22.748945369530894</v>
+        <v>9.427624286120011</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.25986134119543502</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2.3592819222522099E-2</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.33981867993293202</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.0852148485080801E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>1.5558131574403599E-8</v>
+        <v>1.5634817209249301E-8</v>
       </c>
       <c r="E11" s="4">
-        <v>1.12862643171903E-8</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.25999999999778001</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2.4634317248145399E-2</v>
+        <v>1.1330720277193799E-8</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3.2214099314956099E-2</v>
       </c>
       <c r="H11" s="4">
-        <v>412470.437415439</v>
+        <v>510787.55008360499</v>
       </c>
       <c r="I11" s="4">
-        <v>7569.6739969905102</v>
+        <v>9859.9666926201498</v>
       </c>
       <c r="J11" s="4">
-        <v>2.71558524000035E-2</v>
+        <v>2.7155852406983299E-2</v>
       </c>
       <c r="K11" s="4">
-        <v>3.6211586550640501E-3</v>
+        <v>3.6211586557918902E-3</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>420040.14218944055</v>
+        <v>520647.54755323619</v>
       </c>
       <c r="M11" s="4">
-        <v>1151508.68413342</v>
+        <v>1086869.5919644199</v>
       </c>
       <c r="N11" s="4">
-        <v>1124227.8894092599</v>
+        <v>1025412.85111059</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>-10.582581226057854</v>
+        <v>-15.601962194072543</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="2"/>
-        <v>7.1329524101938127</v>
+        <v>32.669334165421233</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="3"/>
-        <v>-2.5569077790571773</v>
+        <v>20.78252027625636</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.62310154117927496</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5.6571408239063703E-2</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>1.5904033698042401E-8</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
+        <v>1.1488615062502301E-8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.62343400690978601</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5.9068699346012103E-2</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>787753.744301992</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>17831.047820784199</v>
       </c>
       <c r="J12" s="4">
-        <v>0</v>
+        <v>2.71558524E-2</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>3.6211586550642799E-3</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>805584.82289978722</v>
       </c>
       <c r="M12" s="4">
-        <v>1410557.7962581001</v>
+        <v>900000.00005945202</v>
       </c>
       <c r="N12" s="4">
-        <v>1622539.16763812</v>
+        <v>781185.27239881596</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="1"/>
-        <v>9.5332053598699353</v>
+        <v>-30.112835438643003</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>104.60711058003781</v>
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>86.883748254262073</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.23903527282477499</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2.1702019829566901E-2</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.81989494480910596</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.4438287454974494E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>1.5538101880691901E-8</v>
+        <v>1.60890858773263E-8</v>
       </c>
       <c r="E13" s="4">
-        <v>1.12746931682776E-8</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.23916281987136701</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2.26600511950923E-2</v>
+        <v>1.15986553662899E-8</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.82033240972337196</v>
+      </c>
+      <c r="G13" s="3">
+        <v>7.7724286625524899E-2</v>
       </c>
       <c r="H13" s="4">
-        <v>385008</v>
+        <v>933741.97717620397</v>
       </c>
       <c r="I13" s="4">
-        <v>6970.1636900692001</v>
+        <v>23240.008464181301</v>
       </c>
       <c r="J13" s="4">
         <v>2.71558524E-2</v>
@@ -1745,595 +1739,481 @@
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>391978.19446708029</v>
+        <v>956982.01641739637</v>
       </c>
       <c r="M13" s="4">
-        <v>1169373.7312173699</v>
+        <v>800000.00000000105</v>
       </c>
       <c r="N13" s="4">
-        <v>1153096.17080754</v>
+        <v>669586.06618908199</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="1"/>
-        <v>-9.195317353424608</v>
+        <v>-37.878075949564007</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>142.52534419445934</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="3"/>
-        <v>-9.066864055036099</v>
+        <v>122.00565496782281</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>-0.15</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.19717528010827301</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.79015497932263E-2</v>
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9.0975252243630997E-3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8.2596459713225195E-4</v>
       </c>
       <c r="D14" s="4">
-        <v>1.54977701044032E-8</v>
+        <v>1.5315277965740099E-8</v>
       </c>
       <c r="E14" s="4">
-        <v>1.1251445504421299E-8</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.19728049274168899</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1.8691814793882201E-2</v>
+        <v>1.114716132784E-8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9.1023889076732502E-3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8.6245208258511397E-4</v>
       </c>
       <c r="H14" s="4">
-        <v>327256.79999999102</v>
+        <v>17454.152825048801</v>
       </c>
       <c r="I14" s="4">
-        <v>5761.4243385275404</v>
+        <v>268.31484361838397</v>
       </c>
       <c r="J14" s="4">
-        <v>2.7155852400000801E-2</v>
+        <v>2.7155852399999798E-2</v>
       </c>
       <c r="K14" s="4">
-        <v>3.6211586550633501E-3</v>
+        <v>3.6211586535946699E-3</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>333018.25511552964</v>
+        <v>17722.498445678237</v>
       </c>
       <c r="M14" s="4">
-        <v>1206661.13028645</v>
+        <v>1400000</v>
       </c>
       <c r="N14" s="4">
-        <v>1215687.30359622</v>
+        <v>1598467.7739653799</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>-6.2998611371649949</v>
+        <v>8.7133670882628493</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="2"/>
-        <v>-15.000000000002332</v>
+        <f t="shared" ref="P14:P17" si="4">(H14-$S$2)*100/$S$2</f>
+        <v>-95.466548013275357</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="3"/>
-        <v>-22.744696791753938</v>
+        <f t="shared" ref="Q14:Q17" si="5">(L14-$U$2)*100/$U$2</f>
+        <v>-95.888642829644411</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.28356464315881402</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.5744842742551101E-2</v>
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.21996584783429701</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4.9118394821023703E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>1.558089999867E-8</v>
+        <v>1.5553774082995801E-8</v>
       </c>
       <c r="E15" s="4">
-        <v>1.12994381431832E-8</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.28371594886584101</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2.6881338797205001E-2</v>
+        <v>1.14330794303689E-8</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.22025451389579401</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.05</v>
       </c>
       <c r="H15" s="4">
-        <v>442759.19964438601</v>
+        <v>359113.66628213</v>
       </c>
       <c r="I15" s="4">
-        <v>8250.5128962261206</v>
+        <v>15557.0947814132</v>
       </c>
       <c r="J15" s="4">
-        <v>2.71558524000001E-2</v>
+        <v>2.7155852395563399E-2</v>
       </c>
       <c r="K15" s="4">
-        <v>3.6211586550636702E-3</v>
+        <v>3.6211586512502102E-3</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="0"/>
-        <v>451009.74331762322</v>
+        <f>SUM(H15:K15)</f>
+        <v>374670.79184055427</v>
       </c>
       <c r="M15" s="4">
-        <v>1131707.0679942099</v>
+        <v>1185985.8440542801</v>
       </c>
       <c r="N15" s="4">
-        <v>1093040.7564054099</v>
+        <v>1178000.0220878499</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="1"/>
-        <v>-12.120224343402722</v>
+        <f>(M15-$M$2)*100/$M$2</f>
+        <v>-7.9053468384598506</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="2"/>
-        <v>14.999999907634651</v>
+        <f>(H15-$S$2)*100/$S$2</f>
+        <v>-6.7256612116813166</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="3"/>
-        <v>4.6275810249159557</v>
+        <f>(L15-$U$2)*100/$U$2</f>
+        <v>-13.081925142890286</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.19809447769781799</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.7985003770875099E-2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.5498656801182599E-8</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1.1251955851136001E-8</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.19820018076941701</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1.87789527291293E-2</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.226613118579086</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.97581905599232E-2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.90805961478388E-3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>7.5073117309246195E-4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.227934112271029</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2.3325200443423601E-2</v>
       </c>
       <c r="H16" s="4">
-        <v>328563.12993685802</v>
+        <v>368118.66927183798</v>
       </c>
       <c r="I16" s="4">
-        <v>5788.0205830777304</v>
+        <v>6346.2808562547598</v>
       </c>
       <c r="J16" s="4">
-        <v>2.71558524E-2</v>
+        <v>3330.39373833842</v>
       </c>
       <c r="K16" s="4">
-        <v>3.6211586550636801E-3</v>
+        <v>241.13295483920501</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>334351.18129694683</v>
+        <v>378036.47682127036</v>
       </c>
       <c r="M16" s="4">
-        <v>1205821.9549612401</v>
+        <v>1179238.31874751</v>
       </c>
       <c r="N16" s="4">
-        <v>1214242.7569055499</v>
+        <v>1166897.8712851901</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="1"/>
-        <v>-6.3650251194371119</v>
+        <v>-8.4293084067543109</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="2"/>
-        <v>-14.660700573271718</v>
+        <f t="shared" si="4"/>
+        <v>-4.3867479969668217</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="3"/>
-        <v>-22.435477658214634</v>
+        <f t="shared" si="5"/>
+        <v>-12.30113607293838</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.29984001056526699</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.72224838538998E-2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.5596516146086699E-8</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1.13084861527423E-8</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G17" s="7">
-        <v>2.8424208281689001E-2</v>
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.21774735814570201</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.9769289394906901E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3.8221723568458801E-3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>7.5115288384949798E-4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.220272695924039</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2.5215301574159299E-2</v>
       </c>
       <c r="H17" s="4">
-        <v>462983.79905492399</v>
+        <v>355854.66927185899</v>
       </c>
       <c r="I17" s="4">
-        <v>8717.0759682996195</v>
+        <v>6346.2808562547598</v>
       </c>
       <c r="J17" s="4">
-        <v>2.7155852338741199E-2</v>
+        <v>6660.78747667682</v>
       </c>
       <c r="K17" s="4">
-        <v>3.6211586499222898E-3</v>
+        <v>241.13295484068999</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>471700.90580023464</v>
+        <v>369102.87055963121</v>
       </c>
       <c r="M17" s="4">
-        <v>1118428.7919266699</v>
+        <v>1186083.7472832899</v>
       </c>
       <c r="N17" s="4">
-        <v>1072590.11061572</v>
+        <v>1175798.92466753</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="1"/>
-        <v>-13.151314415138275</v>
+        <v>-7.8977444172638007</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="2"/>
-        <v>20.253033457726591</v>
+        <f t="shared" si="4"/>
+        <v>-7.5721363525280019</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="3"/>
-        <v>9.427624286120011</v>
+        <f t="shared" si="5"/>
+        <v>-14.373600419514778</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0.33981867993293202</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3.0852148485080801E-2</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.186303190876525</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3.9804881373689899E-2</v>
       </c>
       <c r="D18" s="4">
-        <v>1.5634817209249301E-8</v>
+        <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>1.1330720277193799E-8</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="G18" s="7">
-        <v>3.2214099314956099E-2</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.18653711395526101</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4.0551546512013301E-2</v>
       </c>
       <c r="H18" s="4">
-        <v>510787.55008360499</v>
+        <v>311657.60364940402</v>
       </c>
       <c r="I18" s="4">
-        <v>9859.9666926201498</v>
+        <v>12668.281118958599</v>
       </c>
       <c r="J18" s="4">
-        <v>2.7155852406983299E-2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4">
-        <v>3.6211586557918902E-3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="0"/>
-        <v>520647.54755323619</v>
+        <f>SUM(H18:K18)</f>
+        <v>324325.88476836262</v>
       </c>
       <c r="M18" s="4">
-        <v>1086869.5919644199</v>
+        <v>1216546.3953604</v>
       </c>
       <c r="N18" s="4">
-        <v>1025412.85111059</v>
+        <v>1230793.5275048399</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="1"/>
-        <v>-15.601962194072543</v>
+        <f>(M18-$M$2)*100/$M$2</f>
+        <v>-5.5322465294870637</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="2"/>
-        <v>32.669334165421233</v>
+        <f>(H18-$S$2)*100/$S$2</f>
+        <v>-19.051655121606821</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="3"/>
-        <v>20.78252027625636</v>
+        <f>(L18-$U$2)*100/$U$2</f>
+        <v>-24.761197978860903</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0.62310154117927496</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5.6571408239063703E-2</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.186303190876525</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3.9804881373689899E-2</v>
       </c>
       <c r="D19" s="4">
-        <v>1.5904033698042401E-8</v>
+        <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>1.1488615062502301E-8</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.62343400690978601</v>
-      </c>
-      <c r="G19" s="7">
-        <v>5.9068699346012103E-2</v>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.18653711395526101</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4.0551546512013301E-2</v>
       </c>
       <c r="H19" s="4">
-        <v>787753.744301992</v>
+        <v>311657.60364940402</v>
       </c>
       <c r="I19" s="4">
-        <v>17831.047820784199</v>
+        <v>12668.281118958599</v>
       </c>
       <c r="J19" s="4">
-        <v>2.71558524E-2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
-        <v>3.6211586550642799E-3</v>
+        <v>0</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="0"/>
-        <v>805584.82289978722</v>
+        <f>SUM(H19:K19)</f>
+        <v>324325.88476836262</v>
       </c>
       <c r="M19" s="4">
-        <v>900000.00005945202</v>
+        <v>1216546.3953604</v>
       </c>
       <c r="N19" s="4">
-        <v>781185.27239881596</v>
+        <v>1230793.5275048399</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="1"/>
-        <v>-30.112835438643003</v>
+        <f>(M19-$M$2)*100/$M$2</f>
+        <v>-5.5322465294870637</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="2"/>
-        <v>104.60711058003781</v>
+        <f>(H19-$S$2)*100/$S$2</f>
+        <v>-19.051655121606821</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="3"/>
-        <v>86.883748254262073</v>
+        <f>(L19-$U$2)*100/$U$2</f>
+        <v>-24.761197978860903</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.81989494480910596</v>
-      </c>
-      <c r="C20" s="7">
-        <v>7.4438287454974494E-2</v>
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.186303190876525</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3.9804881373689899E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>1.60890858773263E-8</v>
+        <v>0</v>
       </c>
       <c r="E20" s="4">
-        <v>1.15986553662899E-8</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.82033240972337196</v>
-      </c>
-      <c r="G20" s="7">
-        <v>7.7724286625524899E-2</v>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.18653711395526101</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4.0551546512013301E-2</v>
       </c>
       <c r="H20" s="4">
-        <v>933741.97717620397</v>
+        <v>311657.60364940402</v>
       </c>
       <c r="I20" s="4">
-        <v>23240.008464181301</v>
+        <v>12668.281118958599</v>
       </c>
       <c r="J20" s="4">
-        <v>2.71558524E-2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
-        <v>3.6211586550636801E-3</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="0"/>
-        <v>956982.01641739637</v>
+        <f>SUM(H20:K20)</f>
+        <v>324325.88476836262</v>
       </c>
       <c r="M20" s="4">
-        <v>800000.00000000105</v>
+        <v>1216546.3953604</v>
       </c>
       <c r="N20" s="4">
-        <v>669586.06618908199</v>
+        <v>1230793.5275048399</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="1"/>
-        <v>-37.878075949564007</v>
+        <f>(M20-$M$2)*100/$M$2</f>
+        <v>-5.5322465294870637</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="2"/>
-        <v>142.52534419445934</v>
+        <f>(H20-$S$2)*100/$S$2</f>
+        <v>-19.051655121606821</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="3"/>
-        <v>122.00565496782281</v>
+        <f>(L20-$U$2)*100/$U$2</f>
+        <v>-24.761197978860903</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="7">
-        <v>9.0975252243630997E-3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>8.2596459713225195E-4</v>
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.19029595457530099</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4.9237332680256998E-2</v>
       </c>
       <c r="D21" s="4">
-        <v>1.5315277965740099E-8</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4">
-        <v>1.114716132784E-8</v>
-      </c>
-      <c r="F21" s="7">
-        <v>9.1023889076732502E-3</v>
-      </c>
-      <c r="G21" s="7">
-        <v>8.6245208258511397E-4</v>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.19058530975114499</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.05</v>
       </c>
       <c r="H21" s="4">
-        <v>17454.152825048801</v>
+        <v>317404.87558254303</v>
       </c>
       <c r="I21" s="4">
-        <v>268.31484361838397</v>
+        <v>15595.0655286497</v>
       </c>
       <c r="J21" s="4">
-        <v>2.7155852399999798E-2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>3.6211586535946699E-3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="0"/>
-        <v>17722.498445678237</v>
+        <f>SUM(H21:K21)</f>
+        <v>332999.94111119275</v>
       </c>
       <c r="M21" s="4">
-        <v>1400000</v>
+        <v>1212815.6075072901</v>
       </c>
       <c r="N21" s="4">
-        <v>1598467.7739653799</v>
+        <v>1223493.7800543101</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="1"/>
-        <v>8.7133670882628493</v>
+        <f>(M21-$M$2)*100/$M$2</f>
+        <v>-5.8219511790610401</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" ref="P21:P23" si="4">(H21-$S$2)*100/$S$2</f>
-        <v>-95.466548013275357</v>
+        <f>(H21-$S$2)*100/$S$2</f>
+        <v>-17.558888235428089</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" ref="Q21:Q23" si="5">(L21-$U$2)*100/$U$2</f>
-        <v>-95.888642829644411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0.226613118579086</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1.97581905599232E-2</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1.90805961478388E-3</v>
-      </c>
-      <c r="E22" s="7">
-        <v>7.5073117309246195E-4</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.227934112271029</v>
-      </c>
-      <c r="G22" s="7">
-        <v>2.3325200443423601E-2</v>
-      </c>
-      <c r="H22" s="4">
-        <v>368118.66927183798</v>
-      </c>
-      <c r="I22" s="4">
-        <v>6346.2808562547598</v>
-      </c>
-      <c r="J22" s="4">
-        <v>3330.39373833842</v>
-      </c>
-      <c r="K22" s="4">
-        <v>241.13295483920501</v>
-      </c>
-      <c r="L22" s="4">
-        <f t="shared" si="0"/>
-        <v>378036.47682127036</v>
-      </c>
-      <c r="M22" s="4">
-        <v>1179238.31874751</v>
-      </c>
-      <c r="N22" s="4">
-        <v>1166897.8712851901</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="1"/>
-        <v>-8.4293084067543109</v>
-      </c>
-      <c r="P22" s="3">
-        <f t="shared" si="4"/>
-        <v>-4.3867479969668217</v>
-      </c>
-      <c r="Q22" s="3">
-        <f t="shared" si="5"/>
-        <v>-12.30113607293838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.21774735814570201</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1.9769289394906901E-2</v>
-      </c>
-      <c r="D23" s="7">
-        <v>3.8221723568458801E-3</v>
-      </c>
-      <c r="E23" s="7">
-        <v>7.5115288384949798E-4</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.220272695924039</v>
-      </c>
-      <c r="G23" s="7">
-        <v>2.5215301574159299E-2</v>
-      </c>
-      <c r="H23" s="4">
-        <v>355854.66927185899</v>
-      </c>
-      <c r="I23" s="4">
-        <v>6346.2808562547598</v>
-      </c>
-      <c r="J23" s="4">
-        <v>6660.78747667682</v>
-      </c>
-      <c r="K23" s="4">
-        <v>241.13295484068999</v>
-      </c>
-      <c r="L23" s="4">
-        <f t="shared" si="0"/>
-        <v>369102.87055963121</v>
-      </c>
-      <c r="M23" s="4">
-        <v>1186083.7472832899</v>
-      </c>
-      <c r="N23" s="4">
-        <v>1175798.92466753</v>
-      </c>
-      <c r="O23" s="3">
-        <f t="shared" si="1"/>
-        <v>-7.8977444172638007</v>
-      </c>
-      <c r="P23" s="3">
-        <f t="shared" si="4"/>
-        <v>-7.5721363525280019</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="5"/>
-        <v>-14.373600419514778</v>
+        <f>(L21-$U$2)*100/$U$2</f>
+        <v>-22.748945369530894</v>
       </c>
     </row>
   </sheetData>
